--- a/TODO/TryingToGetParametersForOurNewModel_05_06_2018/ourData2010&2011.xlsx
+++ b/TODO/TryingToGetParametersForOurNewModel_05_06_2018/ourData2010&2011.xlsx
@@ -112,18 +112,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -406,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,12 +424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3">
+      <c r="A1" s="5">
         <v>2010</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="4">
         <v>2011</v>
       </c>
@@ -438,49 +437,49 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1963</v>
       </c>
       <c r="B3">
+        <v>164821</v>
+      </c>
+      <c r="C3">
         <v>249718</v>
-      </c>
-      <c r="C3">
-        <v>164821</v>
       </c>
       <c r="D3">
         <f>$C3*$I$3</f>
-        <v>164821000</v>
-      </c>
-      <c r="E3" s="2">
+        <v>249718000</v>
+      </c>
+      <c r="E3" s="1">
         <v>1963</v>
       </c>
       <c r="F3">
@@ -498,20 +497,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1964</v>
       </c>
       <c r="B4">
+        <v>166809</v>
+      </c>
+      <c r="C4">
         <v>462750</v>
       </c>
-      <c r="C4">
-        <v>166809</v>
-      </c>
       <c r="D4">
-        <f t="shared" ref="D4:D50" si="0">$C4*$I$3</f>
-        <v>166809000</v>
-      </c>
-      <c r="E4" s="2">
+        <f t="shared" ref="D4:D49" si="0">$C4*$I$3</f>
+        <v>462750000</v>
+      </c>
+      <c r="E4" s="1">
         <v>1964</v>
       </c>
       <c r="F4">
@@ -521,25 +520,25 @@
         <v>520216</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H51" si="1">$G4*$I$3</f>
+        <f t="shared" ref="H4:H50" si="1">$G4*$I$3</f>
         <v>520216000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1965</v>
       </c>
       <c r="B5">
+        <v>193421</v>
+      </c>
+      <c r="C5">
         <v>687286</v>
       </c>
-      <c r="C5">
-        <v>193421</v>
-      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>193421000</v>
-      </c>
-      <c r="E5" s="2">
+        <v>687286000</v>
+      </c>
+      <c r="E5" s="1">
         <v>1965</v>
       </c>
       <c r="F5">
@@ -554,20 +553,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1966</v>
       </c>
       <c r="B6">
+        <v>225100</v>
+      </c>
+      <c r="C6">
         <v>835166</v>
       </c>
-      <c r="C6">
-        <v>225100</v>
-      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>225100000</v>
-      </c>
-      <c r="E6" s="2">
+        <v>835166000</v>
+      </c>
+      <c r="E6" s="1">
         <v>1966</v>
       </c>
       <c r="F6">
@@ -582,20 +581,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1967</v>
       </c>
       <c r="B7">
+        <v>249059</v>
+      </c>
+      <c r="C7">
         <v>748976</v>
       </c>
-      <c r="C7">
-        <v>249059</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>249059000</v>
-      </c>
-      <c r="E7" s="2">
+        <v>748976000</v>
+      </c>
+      <c r="E7" s="1">
         <v>1967</v>
       </c>
       <c r="F7">
@@ -610,20 +609,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1968</v>
       </c>
       <c r="B8">
+        <v>254722</v>
+      </c>
+      <c r="C8">
         <v>329855</v>
       </c>
-      <c r="C8">
-        <v>254722</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>254722000</v>
-      </c>
-      <c r="E8" s="2">
+        <v>329855000</v>
+      </c>
+      <c r="E8" s="1">
         <v>1968</v>
       </c>
       <c r="F8">
@@ -638,20 +637,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1969</v>
       </c>
       <c r="B9">
+        <v>252744</v>
+      </c>
+      <c r="C9">
         <v>295479</v>
       </c>
-      <c r="C9">
-        <v>252744</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>252744000</v>
-      </c>
-      <c r="E9" s="2">
+        <v>295479000</v>
+      </c>
+      <c r="E9" s="1">
         <v>1969</v>
       </c>
       <c r="F9">
@@ -666,20 +665,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1970</v>
       </c>
       <c r="B10">
+        <v>260553</v>
+      </c>
+      <c r="C10">
         <v>1143743</v>
       </c>
-      <c r="C10">
-        <v>260553</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>260553000</v>
-      </c>
-      <c r="E10" s="2">
+        <v>1143743000</v>
+      </c>
+      <c r="E10" s="1">
         <v>1970</v>
       </c>
       <c r="F10">
@@ -694,20 +693,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1971</v>
       </c>
       <c r="B11">
+        <v>264800</v>
+      </c>
+      <c r="C11">
         <v>1687701</v>
       </c>
-      <c r="C11">
-        <v>264800</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>264800000</v>
-      </c>
-      <c r="E11" s="2">
+        <v>1687701000</v>
+      </c>
+      <c r="E11" s="1">
         <v>1971</v>
       </c>
       <c r="F11">
@@ -722,20 +721,20 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1972</v>
       </c>
       <c r="B12">
+        <v>243532</v>
+      </c>
+      <c r="C12">
         <v>329293</v>
       </c>
-      <c r="C12">
-        <v>243532</v>
-      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>243532000</v>
-      </c>
-      <c r="E12" s="2">
+        <v>329293000</v>
+      </c>
+      <c r="E12" s="1">
         <v>1972</v>
       </c>
       <c r="F12">
@@ -750,20 +749,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>1973</v>
       </c>
       <c r="B13">
+        <v>205762</v>
+      </c>
+      <c r="C13">
         <v>561402</v>
       </c>
-      <c r="C13">
-        <v>205762</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>205762000</v>
-      </c>
-      <c r="E13" s="2">
+        <v>561402000</v>
+      </c>
+      <c r="E13" s="1">
         <v>1973</v>
       </c>
       <c r="F13">
@@ -778,20 +777,20 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>1974</v>
       </c>
       <c r="B14">
+        <v>233150</v>
+      </c>
+      <c r="C14">
         <v>550554</v>
       </c>
-      <c r="C14">
-        <v>233150</v>
-      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>233150000</v>
-      </c>
-      <c r="E14" s="2">
+        <v>550554000</v>
+      </c>
+      <c r="E14" s="1">
         <v>1974</v>
       </c>
       <c r="F14">
@@ -806,20 +805,20 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>1975</v>
       </c>
       <c r="B15">
+        <v>211890</v>
+      </c>
+      <c r="C15">
         <v>1030925</v>
       </c>
-      <c r="C15">
-        <v>211890</v>
-      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>211890000</v>
-      </c>
-      <c r="E15" s="2">
+        <v>1030925000</v>
+      </c>
+      <c r="E15" s="1">
         <v>1975</v>
       </c>
       <c r="F15">
@@ -834,20 +833,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>1976</v>
       </c>
       <c r="B16">
+        <v>180579</v>
+      </c>
+      <c r="C16">
         <v>769399</v>
       </c>
-      <c r="C16">
-        <v>180579</v>
-      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>180579000</v>
-      </c>
-      <c r="E16" s="2">
+        <v>769399000</v>
+      </c>
+      <c r="E16" s="1">
         <v>1976</v>
       </c>
       <c r="F16">
@@ -862,20 +861,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>1977</v>
       </c>
       <c r="B17">
+        <v>163815</v>
+      </c>
+      <c r="C17">
         <v>1898803</v>
       </c>
-      <c r="C17">
-        <v>163815</v>
-      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>163815000</v>
-      </c>
-      <c r="E17" s="2">
+        <v>1898803000</v>
+      </c>
+      <c r="E17" s="1">
         <v>1977</v>
       </c>
       <c r="F17">
@@ -890,20 +889,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>1978</v>
       </c>
       <c r="B18">
+        <v>150864</v>
+      </c>
+      <c r="C18">
         <v>638410</v>
       </c>
-      <c r="C18">
-        <v>150864</v>
-      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>150864000</v>
-      </c>
-      <c r="E18" s="2">
+        <v>638410000</v>
+      </c>
+      <c r="E18" s="1">
         <v>1978</v>
       </c>
       <c r="F18">
@@ -918,20 +917,20 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>1979</v>
       </c>
       <c r="B19">
+        <v>158450</v>
+      </c>
+      <c r="C19">
         <v>1502822</v>
       </c>
-      <c r="C19">
-        <v>158450</v>
-      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>158450000</v>
-      </c>
-      <c r="E19" s="2">
+        <v>1502822000</v>
+      </c>
+      <c r="E19" s="1">
         <v>1979</v>
       </c>
       <c r="F19">
@@ -946,20 +945,20 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>1980</v>
       </c>
       <c r="B20">
+        <v>179034</v>
+      </c>
+      <c r="C20">
         <v>2807522</v>
       </c>
-      <c r="C20">
-        <v>179034</v>
-      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>179034000</v>
-      </c>
-      <c r="E20" s="2">
+        <v>2807522000</v>
+      </c>
+      <c r="E20" s="1">
         <v>1980</v>
       </c>
       <c r="F20">
@@ -974,20 +973,20 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>1981</v>
       </c>
       <c r="B21">
+        <v>190515</v>
+      </c>
+      <c r="C21">
         <v>609627</v>
       </c>
-      <c r="C21">
-        <v>190515</v>
-      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>190515000</v>
-      </c>
-      <c r="E21" s="2">
+        <v>609627000</v>
+      </c>
+      <c r="E21" s="1">
         <v>1981</v>
       </c>
       <c r="F21">
@@ -1002,20 +1001,20 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>1982</v>
       </c>
       <c r="B22">
+        <v>184954</v>
+      </c>
+      <c r="C22">
         <v>983478</v>
       </c>
-      <c r="C22">
-        <v>184954</v>
-      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>184954000</v>
-      </c>
-      <c r="E22" s="2">
+        <v>983478000</v>
+      </c>
+      <c r="E22" s="1">
         <v>1982</v>
       </c>
       <c r="F22">
@@ -1030,20 +1029,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>1983</v>
       </c>
       <c r="B23">
+        <v>148887</v>
+      </c>
+      <c r="C23">
         <v>470856</v>
       </c>
-      <c r="C23">
-        <v>148887</v>
-      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>148887000</v>
-      </c>
-      <c r="E23" s="2">
+        <v>470856000</v>
+      </c>
+      <c r="E23" s="1">
         <v>1983</v>
       </c>
       <c r="F23">
@@ -1058,20 +1057,20 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>1984</v>
       </c>
       <c r="B24">
+        <v>131990</v>
+      </c>
+      <c r="C24">
         <v>1485857</v>
       </c>
-      <c r="C24">
-        <v>131990</v>
-      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>131990000</v>
-      </c>
-      <c r="E24" s="2">
+        <v>1485857000</v>
+      </c>
+      <c r="E24" s="1">
         <v>1984</v>
       </c>
       <c r="F24">
@@ -1086,20 +1085,20 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>1985</v>
       </c>
       <c r="B25">
+        <v>124377</v>
+      </c>
+      <c r="C25">
         <v>272216</v>
       </c>
-      <c r="C25">
-        <v>124377</v>
-      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>124377000</v>
-      </c>
-      <c r="E25" s="2">
+        <v>272216000</v>
+      </c>
+      <c r="E25" s="1">
         <v>1985</v>
       </c>
       <c r="F25">
@@ -1114,20 +1113,20 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>1986</v>
       </c>
       <c r="B26">
+        <v>115131</v>
+      </c>
+      <c r="C26">
         <v>1668790</v>
       </c>
-      <c r="C26">
-        <v>115131</v>
-      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>115131000</v>
-      </c>
-      <c r="E26" s="2">
+        <v>1668790000</v>
+      </c>
+      <c r="E26" s="1">
         <v>1986</v>
       </c>
       <c r="F26">
@@ -1142,20 +1141,20 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>1987</v>
       </c>
       <c r="B27">
+        <v>107497</v>
+      </c>
+      <c r="C27">
         <v>363028</v>
       </c>
-      <c r="C27">
-        <v>107497</v>
-      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>107497000</v>
-      </c>
-      <c r="E27" s="2">
+        <v>363028000</v>
+      </c>
+      <c r="E27" s="1">
         <v>1987</v>
       </c>
       <c r="F27">
@@ -1170,20 +1169,20 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>1988</v>
       </c>
       <c r="B28">
+        <v>98891</v>
+      </c>
+      <c r="C28">
         <v>238095</v>
       </c>
-      <c r="C28">
-        <v>98891</v>
-      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>98891000</v>
-      </c>
-      <c r="E28" s="2">
+        <v>238095000</v>
+      </c>
+      <c r="E28" s="1">
         <v>1988</v>
       </c>
       <c r="F28">
@@ -1198,20 +1197,20 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>1989</v>
       </c>
       <c r="B29">
+        <v>92916</v>
+      </c>
+      <c r="C29">
         <v>630948</v>
       </c>
-      <c r="C29">
-        <v>92916</v>
-      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>92916000</v>
-      </c>
-      <c r="E29" s="2">
+        <v>630948000</v>
+      </c>
+      <c r="E29" s="1">
         <v>1989</v>
       </c>
       <c r="F29">
@@ -1226,20 +1225,20 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>1990</v>
       </c>
       <c r="B30">
+        <v>81366</v>
+      </c>
+      <c r="C30">
         <v>199507</v>
       </c>
-      <c r="C30">
-        <v>81366</v>
-      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>81366000</v>
-      </c>
-      <c r="E30" s="2">
+        <v>199507000</v>
+      </c>
+      <c r="E30" s="1">
         <v>1990</v>
       </c>
       <c r="F30">
@@ -1254,20 +1253,20 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>1991</v>
       </c>
       <c r="B31">
+        <v>78101</v>
+      </c>
+      <c r="C31">
         <v>260126</v>
       </c>
-      <c r="C31">
-        <v>78101</v>
-      </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>78101000</v>
-      </c>
-      <c r="E31" s="2">
+        <v>260126000</v>
+      </c>
+      <c r="E31" s="1">
         <v>1991</v>
       </c>
       <c r="F31">
@@ -1282,20 +1281,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>1992</v>
       </c>
       <c r="B32">
+        <v>77358</v>
+      </c>
+      <c r="C32">
         <v>546515</v>
       </c>
-      <c r="C32">
-        <v>77358</v>
-      </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>77358000</v>
-      </c>
-      <c r="E32" s="2">
+        <v>546515000</v>
+      </c>
+      <c r="E32" s="1">
         <v>1992</v>
       </c>
       <c r="F32">
@@ -1310,20 +1309,20 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>1993</v>
       </c>
       <c r="B33">
+        <v>78840</v>
+      </c>
+      <c r="C33">
         <v>253683</v>
       </c>
-      <c r="C33">
-        <v>78840</v>
-      </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>78840000</v>
-      </c>
-      <c r="E33" s="2">
+        <v>253683000</v>
+      </c>
+      <c r="E33" s="1">
         <v>1993</v>
       </c>
       <c r="F33">
@@ -1338,20 +1337,20 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>1994</v>
       </c>
       <c r="B34">
+        <v>75188</v>
+      </c>
+      <c r="C34">
         <v>933220</v>
       </c>
-      <c r="C34">
-        <v>75188</v>
-      </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>75188000</v>
-      </c>
-      <c r="E34" s="2">
+        <v>933220000</v>
+      </c>
+      <c r="E34" s="1">
         <v>1994</v>
       </c>
       <c r="F34">
@@ -1366,20 +1365,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>1995</v>
       </c>
       <c r="B35">
+        <v>95221</v>
+      </c>
+      <c r="C35">
         <v>410258</v>
       </c>
-      <c r="C35">
-        <v>95221</v>
-      </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>95221000</v>
-      </c>
-      <c r="E35" s="2">
+        <v>410258000</v>
+      </c>
+      <c r="E35" s="1">
         <v>1995</v>
       </c>
       <c r="F35">
@@ -1394,20 +1393,20 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>1996</v>
       </c>
       <c r="B36">
+        <v>103559</v>
+      </c>
+      <c r="C36">
         <v>233787</v>
       </c>
-      <c r="C36">
-        <v>103559</v>
-      </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>103559000</v>
-      </c>
-      <c r="E36" s="2">
+        <v>233787000</v>
+      </c>
+      <c r="E36" s="1">
         <v>1996</v>
       </c>
       <c r="F36">
@@ -1422,20 +1421,20 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>1997</v>
       </c>
       <c r="B37">
+        <v>91452</v>
+      </c>
+      <c r="C37">
         <v>734884</v>
       </c>
-      <c r="C37">
-        <v>91452</v>
-      </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>91452000</v>
-      </c>
-      <c r="E37" s="2">
+        <v>734884000</v>
+      </c>
+      <c r="E37" s="1">
         <v>1997</v>
       </c>
       <c r="F37">
@@ -1450,20 +1449,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>1998</v>
       </c>
       <c r="B38">
+        <v>76291</v>
+      </c>
+      <c r="C38">
         <v>96056</v>
       </c>
-      <c r="C38">
-        <v>76291</v>
-      </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>76291000</v>
-      </c>
-      <c r="E38" s="2">
+        <v>96056000</v>
+      </c>
+      <c r="E38" s="1">
         <v>1998</v>
       </c>
       <c r="F38">
@@ -1478,20 +1477,20 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>1999</v>
       </c>
       <c r="B39">
+        <v>73461</v>
+      </c>
+      <c r="C39">
         <v>176681</v>
       </c>
-      <c r="C39">
-        <v>73461</v>
-      </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>73461000</v>
-      </c>
-      <c r="E39" s="2">
+        <v>176681000</v>
+      </c>
+      <c r="E39" s="1">
         <v>1999</v>
       </c>
       <c r="F39">
@@ -1506,20 +1505,20 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>2000</v>
       </c>
       <c r="B40">
+        <v>48706</v>
+      </c>
+      <c r="C40">
         <v>298594</v>
       </c>
-      <c r="C40">
-        <v>48706</v>
-      </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>48706000</v>
-      </c>
-      <c r="E40" s="2">
+        <v>298594000</v>
+      </c>
+      <c r="E40" s="1">
         <v>2000</v>
       </c>
       <c r="F40">
@@ -1534,20 +1533,20 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>2001</v>
       </c>
       <c r="B41">
+        <v>38605</v>
+      </c>
+      <c r="C41">
         <v>85979</v>
       </c>
-      <c r="C41">
-        <v>38605</v>
-      </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>38605000</v>
-      </c>
-      <c r="E41" s="2">
+        <v>85979000</v>
+      </c>
+      <c r="E41" s="1">
         <v>2001</v>
       </c>
       <c r="F41">
@@ -1562,20 +1561,20 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>2002</v>
       </c>
       <c r="B42">
+        <v>46580</v>
+      </c>
+      <c r="C42">
         <v>153946</v>
       </c>
-      <c r="C42">
-        <v>46580</v>
-      </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>46580000</v>
-      </c>
-      <c r="E42" s="2">
+        <v>153946000</v>
+      </c>
+      <c r="E42" s="1">
         <v>2002</v>
       </c>
       <c r="F42">
@@ -1590,20 +1589,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>2003</v>
       </c>
       <c r="B43">
+        <v>43109</v>
+      </c>
+      <c r="C43">
         <v>72800</v>
       </c>
-      <c r="C43">
-        <v>43109</v>
-      </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>43109000</v>
-      </c>
-      <c r="E43" s="2">
+        <v>72800000</v>
+      </c>
+      <c r="E43" s="1">
         <v>2003</v>
       </c>
       <c r="F43">
@@ -1618,20 +1617,20 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>2004</v>
       </c>
       <c r="B44">
+        <v>39534</v>
+      </c>
+      <c r="C44">
         <v>106957</v>
       </c>
-      <c r="C44">
-        <v>39534</v>
-      </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>39534000</v>
-      </c>
-      <c r="E44" s="2">
+        <v>106957000</v>
+      </c>
+      <c r="E44" s="1">
         <v>2004</v>
       </c>
       <c r="F44">
@@ -1646,20 +1645,20 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>2005</v>
       </c>
       <c r="B45">
+        <v>36347</v>
+      </c>
+      <c r="C45">
         <v>86305</v>
       </c>
-      <c r="C45">
-        <v>36347</v>
-      </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>36347000</v>
-      </c>
-      <c r="E45" s="2">
+        <v>86305000</v>
+      </c>
+      <c r="E45" s="1">
         <v>2005</v>
       </c>
       <c r="F45">
@@ -1674,20 +1673,20 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>2006</v>
       </c>
       <c r="B46">
+        <v>34889</v>
+      </c>
+      <c r="C46">
         <v>209886</v>
       </c>
-      <c r="C46">
-        <v>34889</v>
-      </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>34889000</v>
-      </c>
-      <c r="E46" s="2">
+        <v>209886000</v>
+      </c>
+      <c r="E46" s="1">
         <v>2006</v>
       </c>
       <c r="F46">
@@ -1702,20 +1701,20 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>2007</v>
       </c>
       <c r="B47">
+        <v>42853</v>
+      </c>
+      <c r="C47">
         <v>100583</v>
       </c>
-      <c r="C47">
-        <v>42853</v>
-      </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>42853000</v>
-      </c>
-      <c r="E47" s="2">
+        <v>100583000</v>
+      </c>
+      <c r="E47" s="1">
         <v>2007</v>
       </c>
       <c r="F47">
@@ -1730,20 +1729,20 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>2008</v>
       </c>
       <c r="B48">
+        <v>58458</v>
+      </c>
+      <c r="C48">
         <v>104946</v>
       </c>
-      <c r="C48">
-        <v>58458</v>
-      </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>58458000</v>
-      </c>
-      <c r="E48" s="2">
+        <v>104946000</v>
+      </c>
+      <c r="E48" s="1">
         <v>2008</v>
       </c>
       <c r="F48">
@@ -1757,21 +1756,21 @@
         <v>87728000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>2009</v>
       </c>
       <c r="B49">
+        <v>68560</v>
+      </c>
+      <c r="C49">
         <v>97958</v>
       </c>
-      <c r="C49">
-        <v>68560</v>
-      </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>68560000</v>
-      </c>
-      <c r="E49" s="2">
+        <v>97958000</v>
+      </c>
+      <c r="E49" s="1">
         <v>2009</v>
       </c>
       <c r="F49">
@@ -1785,14 +1784,14 @@
         <v>94750000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>2010</v>
       </c>
       <c r="B50">
         <v>55789</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>2010</v>
       </c>
       <c r="F50">
@@ -1805,13 +1804,12 @@
         <f t="shared" si="1"/>
         <v>165215000</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>2011</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>2011</v>
       </c>
       <c r="F51">
